--- a/Socioemocional/planilha_orçamento_pessoal_rafael_reis.xlsx
+++ b/Socioemocional/planilha_orçamento_pessoal_rafael_reis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafael.reis\OneDrive - Yandeh\Documentos\Segundo-Semestre\Socioemocional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF4429C-E893-47D7-AABF-B58CEBDFFB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21167CD6-E0E2-4DAA-92E5-C83FBD04C712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,6 +925,55 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -970,58 +1019,9 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -1448,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C94" zoomScale="64" zoomScaleNormal="64" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C40" zoomScale="64" zoomScaleNormal="64" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1469,29 +1469,29 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="64">
+      <c r="E1" s="35">
         <v>2022</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="35">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="52">
         <v>2023</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="12" t="s">
         <v>6</v>
       </c>
@@ -1597,11 +1597,11 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="21" t="s">
         <v>14</v>
       </c>
@@ -1624,31 +1624,31 @@
         <v>1800</v>
       </c>
       <c r="K5" s="19">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L5" s="19">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M5" s="19">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="N5" s="19">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="O5" s="19">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="P5" s="19">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="Q5" s="19">
-        <v>2000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
@@ -1667,9 +1667,9 @@
       <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="18" t="s">
         <v>16</v>
       </c>
@@ -1688,9 +1688,9 @@
       <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1709,9 +1709,9 @@
       <c r="Q8" s="19"/>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="18" t="s">
         <v>113</v>
       </c>
@@ -1756,9 +1756,9 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="18" t="s">
         <v>112</v>
       </c>
@@ -1803,9 +1803,9 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="18" t="s">
         <v>18</v>
       </c>
@@ -1824,9 +1824,9 @@
       <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="18" t="s">
         <v>19</v>
       </c>
@@ -1845,9 +1845,9 @@
       <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="18" t="s">
         <v>20</v>
       </c>
@@ -1866,9 +1866,9 @@
       <c r="Q13" s="19"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="18" t="s">
         <v>21</v>
       </c>
@@ -1913,9 +1913,9 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="18" t="s">
         <v>22</v>
       </c>
@@ -1934,9 +1934,9 @@
       <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="24" t="s">
         <v>23</v>
       </c>
@@ -1966,39 +1966,39 @@
       </c>
       <c r="K16" s="25">
         <f t="shared" si="2"/>
-        <v>3065</v>
+        <v>2865</v>
       </c>
       <c r="L16" s="25">
         <f t="shared" si="2"/>
-        <v>3065</v>
+        <v>2865</v>
       </c>
       <c r="M16" s="25">
         <f t="shared" si="2"/>
-        <v>3065</v>
+        <v>2865</v>
       </c>
       <c r="N16" s="25">
         <f t="shared" si="2"/>
-        <v>3065</v>
+        <v>2865</v>
       </c>
       <c r="O16" s="25">
         <f t="shared" si="2"/>
-        <v>3065</v>
+        <v>2865</v>
       </c>
       <c r="P16" s="25">
         <f t="shared" si="2"/>
-        <v>3065</v>
+        <v>2865</v>
       </c>
       <c r="Q16" s="25">
         <f t="shared" si="2"/>
-        <v>3065</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
       <c r="D17"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -2015,9 +2015,9 @@
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="7"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -2034,9 +2034,9 @@
       <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
       <c r="D19"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -2053,11 +2053,11 @@
       <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="34" t="s">
         <v>26</v>
       </c>
@@ -2076,9 +2076,9 @@
       <c r="Q20" s="19"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="18" t="s">
         <v>27</v>
       </c>
@@ -2097,9 +2097,9 @@
       <c r="Q21" s="19"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="18" t="s">
         <v>28</v>
       </c>
@@ -2118,9 +2118,9 @@
       <c r="Q22" s="19"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="18" t="s">
         <v>29</v>
       </c>
@@ -2139,9 +2139,9 @@
       <c r="Q23" s="19"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="34" t="s">
         <v>30</v>
       </c>
@@ -2160,9 +2160,9 @@
       <c r="Q24" s="19"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="34" t="s">
         <v>31</v>
       </c>
@@ -2181,9 +2181,9 @@
       <c r="Q25" s="19"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="34" t="s">
         <v>32</v>
       </c>
@@ -2202,9 +2202,9 @@
       <c r="Q26" s="19"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="18" t="s">
         <v>22</v>
       </c>
@@ -2223,9 +2223,9 @@
       <c r="Q27" s="19"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="24" t="s">
         <v>23</v>
       </c>
@@ -2283,9 +2283,9 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="24" t="s">
         <v>33</v>
       </c>
@@ -2343,11 +2343,11 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
       <c r="D30"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -2364,9 +2364,9 @@
       <c r="Q30" s="13"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="67"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="7"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="45"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="11" t="s">
         <v>34</v>
       </c>
@@ -2406,11 +2406,11 @@
       <c r="Q32" s="6"/>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="50" t="s">
+      <c r="B33" s="38"/>
+      <c r="C33" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="21" t="s">
@@ -2431,9 +2431,9 @@
       <c r="Q33" s="19"/>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="50"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="21" t="s">
         <v>38</v>
       </c>
@@ -2452,9 +2452,9 @@
       <c r="Q34" s="19"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="50"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="21" t="s">
         <v>39</v>
       </c>
@@ -2473,9 +2473,9 @@
       <c r="Q35" s="19"/>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="50"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="21" t="s">
         <v>40</v>
       </c>
@@ -2494,9 +2494,9 @@
       <c r="Q36" s="19"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="50"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="21" t="s">
         <v>41</v>
       </c>
@@ -2515,9 +2515,9 @@
       <c r="Q37" s="19"/>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="50"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="21" t="s">
         <v>42</v>
       </c>
@@ -2536,9 +2536,9 @@
       <c r="Q38" s="19"/>
     </row>
     <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="61" t="s">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="49" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="29" t="s">
@@ -2559,9 +2559,9 @@
       <c r="Q39" s="19"/>
     </row>
     <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.3">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="62"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="29" t="s">
         <v>31</v>
       </c>
@@ -2580,9 +2580,9 @@
       <c r="Q40" s="19"/>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="63"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="29" t="s">
         <v>32</v>
       </c>
@@ -2601,9 +2601,9 @@
       <c r="Q41" s="19"/>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="50" t="s">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D42" s="21" t="s">
@@ -2624,9 +2624,9 @@
       <c r="Q42" s="19"/>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="50"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="21" t="s">
         <v>47</v>
       </c>
@@ -2645,9 +2645,9 @@
       <c r="Q43" s="19"/>
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="50"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="21" t="s">
         <v>48</v>
       </c>
@@ -2666,9 +2666,9 @@
       <c r="Q44" s="19"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="50" t="s">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="36" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="21" t="s">
@@ -2689,9 +2689,9 @@
       <c r="Q45" s="19"/>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="50"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="21" t="s">
         <v>51</v>
       </c>
@@ -2710,9 +2710,9 @@
       <c r="Q46" s="19"/>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="65"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="50" t="s">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="36" t="s">
         <v>52</v>
       </c>
       <c r="D47" s="21" t="s">
@@ -2733,9 +2733,9 @@
       <c r="Q47" s="19"/>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="50"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="21" t="s">
         <v>54</v>
       </c>
@@ -2780,9 +2780,9 @@
       </c>
     </row>
     <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="50"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="21" t="s">
         <v>55</v>
       </c>
@@ -2827,9 +2827,9 @@
       </c>
     </row>
     <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="50" t="s">
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="36" t="s">
         <v>56</v>
       </c>
       <c r="D50" s="21" t="s">
@@ -2850,9 +2850,9 @@
       <c r="Q50" s="19"/>
     </row>
     <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="65"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="50"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="21" t="s">
         <v>58</v>
       </c>
@@ -2871,8 +2871,8 @@
       <c r="Q51" s="19"/>
     </row>
     <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="22" t="s">
         <v>22</v>
       </c>
@@ -2894,123 +2894,123 @@
       <c r="Q52" s="19"/>
     </row>
     <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="65"/>
-      <c r="B53" s="65"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
       <c r="C53" s="23" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="27">
-        <f>SUM(E33:E52)</f>
+        <f t="shared" ref="E53:Q53" si="7">SUM(E33:E52)</f>
         <v>1673.25</v>
       </c>
       <c r="F53" s="27">
-        <f>SUM(F33:F52)</f>
+        <f t="shared" si="7"/>
         <v>1673.25</v>
       </c>
       <c r="G53" s="27">
-        <f>SUM(G33:G52)</f>
+        <f t="shared" si="7"/>
         <v>1673.25</v>
       </c>
       <c r="H53" s="27">
-        <f>SUM(H33:H52)</f>
+        <f t="shared" si="7"/>
         <v>1673.25</v>
       </c>
       <c r="I53" s="27">
-        <f>SUM(I33:I52)</f>
+        <f t="shared" si="7"/>
         <v>1673.25</v>
       </c>
       <c r="J53" s="27">
-        <f>SUM(J33:J52)</f>
+        <f t="shared" si="7"/>
         <v>1673.25</v>
       </c>
       <c r="K53" s="27">
-        <f>SUM(K33:K52)</f>
+        <f t="shared" si="7"/>
         <v>1772.25</v>
       </c>
       <c r="L53" s="27">
-        <f>SUM(L33:L52)</f>
+        <f t="shared" si="7"/>
         <v>1772.25</v>
       </c>
       <c r="M53" s="27">
-        <f>SUM(M33:M52)</f>
+        <f t="shared" si="7"/>
         <v>1772.25</v>
       </c>
       <c r="N53" s="27">
-        <f>SUM(N33:N52)</f>
+        <f t="shared" si="7"/>
         <v>1772.25</v>
       </c>
       <c r="O53" s="27">
-        <f>SUM(O33:O52)</f>
+        <f t="shared" si="7"/>
         <v>1772.25</v>
       </c>
       <c r="P53" s="27">
-        <f>SUM(P33:P52)</f>
+        <f t="shared" si="7"/>
         <v>1772.25</v>
       </c>
       <c r="Q53" s="27">
-        <f>SUM(Q33:Q52)</f>
+        <f t="shared" si="7"/>
         <v>1772.25</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="65"/>
-      <c r="B54" s="65"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="28">
-        <f>IFERROR(E53/E16,0)</f>
+        <f t="shared" ref="E54:Q54" si="8">IFERROR(E53/E16,0)</f>
         <v>0.5840314136125655</v>
       </c>
       <c r="F54" s="28">
-        <f>IFERROR(F53/F16,0)</f>
+        <f t="shared" si="8"/>
         <v>0.5840314136125655</v>
       </c>
       <c r="G54" s="28">
-        <f>IFERROR(G53/G16,0)</f>
+        <f t="shared" si="8"/>
         <v>0.5840314136125655</v>
       </c>
       <c r="H54" s="28">
-        <f>IFERROR(H53/H16,0)</f>
+        <f t="shared" si="8"/>
         <v>0.5840314136125655</v>
       </c>
       <c r="I54" s="28">
-        <f>IFERROR(I53/I16,0)</f>
+        <f t="shared" si="8"/>
         <v>0.5840314136125655</v>
       </c>
       <c r="J54" s="28">
-        <f>IFERROR(J53/J16,0)</f>
+        <f t="shared" si="8"/>
         <v>0.5840314136125655</v>
       </c>
       <c r="K54" s="28">
-        <f>IFERROR(K53/K16,0)</f>
-        <v>0.5782218597063622</v>
+        <f t="shared" si="8"/>
+        <v>0.61858638743455496</v>
       </c>
       <c r="L54" s="28">
-        <f>IFERROR(L53/L16,0)</f>
-        <v>0.5782218597063622</v>
+        <f t="shared" si="8"/>
+        <v>0.61858638743455496</v>
       </c>
       <c r="M54" s="28">
-        <f>IFERROR(M53/M16,0)</f>
-        <v>0.5782218597063622</v>
+        <f t="shared" si="8"/>
+        <v>0.61858638743455496</v>
       </c>
       <c r="N54" s="28">
-        <f>IFERROR(N53/N16,0)</f>
-        <v>0.5782218597063622</v>
+        <f t="shared" si="8"/>
+        <v>0.61858638743455496</v>
       </c>
       <c r="O54" s="28">
-        <f>IFERROR(O53/O16,0)</f>
-        <v>0.5782218597063622</v>
+        <f t="shared" si="8"/>
+        <v>0.61858638743455496</v>
       </c>
       <c r="P54" s="28">
-        <f>IFERROR(P53/P16,0)</f>
-        <v>0.5782218597063622</v>
+        <f t="shared" si="8"/>
+        <v>0.61858638743455496</v>
       </c>
       <c r="Q54" s="28">
-        <f>IFERROR(Q53/Q16,0)</f>
-        <v>0.5782218597063622</v>
+        <f t="shared" si="8"/>
+        <v>0.61858638743455496</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3033,11 +3033,11 @@
       <c r="Q55" s="13"/>
     </row>
     <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="51" t="s">
+      <c r="A56" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="50" t="s">
+      <c r="B56" s="37"/>
+      <c r="C56" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="18" t="s">
@@ -3058,9 +3058,9 @@
       <c r="Q56" s="19"/>
     </row>
     <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="51"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="50"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="36"/>
       <c r="D57" s="18" t="s">
         <v>63</v>
       </c>
@@ -3079,9 +3079,9 @@
       <c r="Q57" s="19"/>
     </row>
     <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="51"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="50"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="36"/>
       <c r="D58" s="18" t="s">
         <v>64</v>
       </c>
@@ -3100,9 +3100,9 @@
       <c r="Q58" s="19"/>
     </row>
     <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="51"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="50"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="18" t="s">
         <v>65</v>
       </c>
@@ -3121,9 +3121,9 @@
       <c r="Q59" s="19"/>
     </row>
     <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="50"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="36"/>
       <c r="D60" s="18" t="s">
         <v>66</v>
       </c>
@@ -3142,9 +3142,9 @@
       <c r="Q60" s="19"/>
     </row>
     <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="51"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="50"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="36"/>
       <c r="D61" s="18" t="s">
         <v>67</v>
       </c>
@@ -3163,9 +3163,9 @@
       <c r="Q61" s="19"/>
     </row>
     <row r="62" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="51"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="50"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="36"/>
       <c r="D62" s="18" t="s">
         <v>68</v>
       </c>
@@ -3184,9 +3184,9 @@
       <c r="Q62" s="19"/>
     </row>
     <row r="63" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="51"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="50" t="s">
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D63" s="18" t="s">
@@ -3233,9 +3233,9 @@
       </c>
     </row>
     <row r="64" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="51"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="50"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="36"/>
       <c r="D64" s="18" t="s">
         <v>70</v>
       </c>
@@ -3280,9 +3280,9 @@
       </c>
     </row>
     <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="51"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="50"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="36"/>
       <c r="D65" s="18" t="s">
         <v>71</v>
       </c>
@@ -3301,9 +3301,9 @@
       <c r="Q65" s="19"/>
     </row>
     <row r="66" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="51"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="50"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="36"/>
       <c r="D66" s="18" t="s">
         <v>48</v>
       </c>
@@ -3322,9 +3322,9 @@
       <c r="Q66" s="19"/>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="51"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="50" t="s">
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="36" t="s">
         <v>21</v>
       </c>
       <c r="D67" s="18" t="s">
@@ -3371,9 +3371,9 @@
       </c>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="51"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="50"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="36"/>
       <c r="D68" s="18" t="s">
         <v>73</v>
       </c>
@@ -3418,9 +3418,9 @@
       </c>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="51"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="50"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="36"/>
       <c r="D69" s="18" t="s">
         <v>74</v>
       </c>
@@ -3465,8 +3465,8 @@
       </c>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="51"/>
-      <c r="B70" s="51"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="22" t="s">
         <v>49</v>
       </c>
@@ -3488,9 +3488,9 @@
       <c r="Q70" s="19"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="51"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="50" t="s">
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="36" t="s">
         <v>76</v>
       </c>
       <c r="D71" s="18" t="s">
@@ -3511,9 +3511,9 @@
       <c r="Q71" s="19"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="51"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="50"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="36"/>
       <c r="D72" s="18" t="s">
         <v>78</v>
       </c>
@@ -3532,9 +3532,9 @@
       <c r="Q72" s="19"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="51"/>
-      <c r="B73" s="51"/>
-      <c r="C73" s="50"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="36"/>
       <c r="D73" s="18" t="s">
         <v>79</v>
       </c>
@@ -3553,9 +3553,9 @@
       <c r="Q73" s="19"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="51"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="50"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="36"/>
       <c r="D74" s="18" t="s">
         <v>80</v>
       </c>
@@ -3574,9 +3574,9 @@
       <c r="Q74" s="19"/>
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="51"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="50"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="36"/>
       <c r="D75" s="18" t="s">
         <v>81</v>
       </c>
@@ -3595,123 +3595,123 @@
       <c r="Q75" s="19"/>
     </row>
     <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="51"/>
-      <c r="B76" s="51"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="23" t="s">
         <v>82</v>
       </c>
       <c r="D76" s="24"/>
       <c r="E76" s="27">
-        <f t="shared" ref="E76" si="7">SUM(E56:E75)</f>
+        <f t="shared" ref="E76" si="9">SUM(E56:E75)</f>
         <v>1034.4000000000001</v>
       </c>
       <c r="F76" s="27">
-        <f t="shared" ref="F76:I76" si="8">SUM(F56:F75)</f>
+        <f t="shared" ref="F76:I76" si="10">SUM(F56:F75)</f>
         <v>1034.4000000000001</v>
       </c>
       <c r="G76" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1034.4000000000001</v>
       </c>
       <c r="H76" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1034.4000000000001</v>
       </c>
       <c r="I76" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1034.4000000000001</v>
       </c>
       <c r="J76" s="27">
-        <f t="shared" ref="J76:Q76" si="9">SUM(J56:J75)</f>
+        <f t="shared" ref="J76:Q76" si="11">SUM(J56:J75)</f>
         <v>1034.4000000000001</v>
       </c>
       <c r="K76" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1034.4000000000001</v>
       </c>
       <c r="L76" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1034.4000000000001</v>
       </c>
       <c r="M76" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1034.4000000000001</v>
       </c>
       <c r="N76" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1034.4000000000001</v>
       </c>
       <c r="O76" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1034.4000000000001</v>
       </c>
       <c r="P76" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1034.4000000000001</v>
       </c>
       <c r="Q76" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1034.4000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="51"/>
-      <c r="B77" s="51"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D77" s="24"/>
       <c r="E77" s="28">
-        <f>IFERROR(E76/E16,0)</f>
+        <f t="shared" ref="E77:Q77" si="12">IFERROR(E76/E16,0)</f>
         <v>0.36104712041884818</v>
       </c>
       <c r="F77" s="28">
-        <f>IFERROR(F76/F16,0)</f>
+        <f t="shared" si="12"/>
         <v>0.36104712041884818</v>
       </c>
       <c r="G77" s="28">
-        <f>IFERROR(G76/G16,0)</f>
+        <f t="shared" si="12"/>
         <v>0.36104712041884818</v>
       </c>
       <c r="H77" s="28">
-        <f>IFERROR(H76/H16,0)</f>
+        <f t="shared" si="12"/>
         <v>0.36104712041884818</v>
       </c>
       <c r="I77" s="28">
-        <f>IFERROR(I76/I16,0)</f>
+        <f t="shared" si="12"/>
         <v>0.36104712041884818</v>
       </c>
       <c r="J77" s="28">
-        <f>IFERROR(J76/J16,0)</f>
+        <f t="shared" si="12"/>
         <v>0.36104712041884818</v>
       </c>
       <c r="K77" s="28">
-        <f>IFERROR(K76/K16,0)</f>
-        <v>0.33748776508972272</v>
+        <f t="shared" si="12"/>
+        <v>0.36104712041884818</v>
       </c>
       <c r="L77" s="28">
-        <f>IFERROR(L76/L16,0)</f>
-        <v>0.33748776508972272</v>
+        <f t="shared" si="12"/>
+        <v>0.36104712041884818</v>
       </c>
       <c r="M77" s="28">
-        <f>IFERROR(M76/M16,0)</f>
-        <v>0.33748776508972272</v>
+        <f t="shared" si="12"/>
+        <v>0.36104712041884818</v>
       </c>
       <c r="N77" s="28">
-        <f>IFERROR(N76/N16,0)</f>
-        <v>0.33748776508972272</v>
+        <f t="shared" si="12"/>
+        <v>0.36104712041884818</v>
       </c>
       <c r="O77" s="28">
-        <f>IFERROR(O76/O16,0)</f>
-        <v>0.33748776508972272</v>
+        <f t="shared" si="12"/>
+        <v>0.36104712041884818</v>
       </c>
       <c r="P77" s="28">
-        <f>IFERROR(P76/P16,0)</f>
-        <v>0.33748776508972272</v>
+        <f t="shared" si="12"/>
+        <v>0.36104712041884818</v>
       </c>
       <c r="Q77" s="28">
-        <f>IFERROR(Q76/Q16,0)</f>
-        <v>0.33748776508972272</v>
+        <f t="shared" si="12"/>
+        <v>0.36104712041884818</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3734,11 +3734,11 @@
       <c r="Q78" s="13"/>
     </row>
     <row r="79" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="53" t="s">
+      <c r="A79" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="54"/>
-      <c r="C79" s="52" t="s">
+      <c r="B79" s="42"/>
+      <c r="C79" s="67" t="s">
         <v>49</v>
       </c>
       <c r="D79" s="21" t="s">
@@ -3759,9 +3759,9 @@
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="55"/>
-      <c r="B80" s="56"/>
-      <c r="C80" s="48"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="65"/>
       <c r="D80" s="21" t="s">
         <v>85</v>
       </c>
@@ -3780,9 +3780,9 @@
       <c r="Q80" s="19"/>
     </row>
     <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="55"/>
-      <c r="B81" s="56"/>
-      <c r="C81" s="48"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="65"/>
       <c r="D81" s="21" t="s">
         <v>86</v>
       </c>
@@ -3801,9 +3801,9 @@
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="55"/>
-      <c r="B82" s="56"/>
-      <c r="C82" s="46" t="s">
+      <c r="A82" s="43"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="63" t="s">
         <v>87</v>
       </c>
       <c r="D82" s="21" t="s">
@@ -3824,9 +3824,9 @@
       <c r="Q82" s="19"/>
     </row>
     <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="55"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="47"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="64"/>
       <c r="D83" s="21" t="s">
         <v>89</v>
       </c>
@@ -3845,9 +3845,9 @@
       <c r="Q83" s="19"/>
     </row>
     <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="55"/>
-      <c r="B84" s="56"/>
-      <c r="C84" s="48" t="s">
+      <c r="A84" s="43"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="65" t="s">
         <v>52</v>
       </c>
       <c r="D84" s="21" t="s">
@@ -3868,9 +3868,9 @@
       <c r="Q84" s="19"/>
     </row>
     <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="55"/>
-      <c r="B85" s="56"/>
-      <c r="C85" s="49"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="66"/>
       <c r="D85" s="31" t="s">
         <v>91</v>
       </c>
@@ -3889,122 +3889,122 @@
       <c r="Q85" s="32"/>
     </row>
     <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="55"/>
-      <c r="B86" s="56"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="23" t="s">
         <v>92</v>
       </c>
       <c r="D86" s="24"/>
       <c r="E86" s="27">
-        <f t="shared" ref="E86" si="10">SUM(E79:E85)</f>
+        <f t="shared" ref="E86" si="13">SUM(E79:E85)</f>
         <v>0</v>
       </c>
       <c r="F86" s="27">
-        <f t="shared" ref="F86:I86" si="11">SUM(F79:F85)</f>
+        <f t="shared" ref="F86:I86" si="14">SUM(F79:F85)</f>
         <v>0</v>
       </c>
       <c r="G86" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H86" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I86" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J86" s="27">
-        <f t="shared" ref="J86:Q86" si="12">SUM(J79:J85)</f>
+        <f t="shared" ref="J86:Q86" si="15">SUM(J79:J85)</f>
         <v>0</v>
       </c>
       <c r="K86" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L86" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M86" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N86" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O86" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P86" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q86" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="57"/>
-      <c r="B87" s="58"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="46"/>
       <c r="C87" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="28">
-        <f>IFERROR(E86/E16,0)</f>
+        <f t="shared" ref="E87:Q87" si="16">IFERROR(E86/E16,0)</f>
         <v>0</v>
       </c>
       <c r="F87" s="28">
-        <f>IFERROR(F86/F16,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G87" s="28">
-        <f>IFERROR(G86/G16,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H87" s="28">
-        <f>IFERROR(H86/H16,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I87" s="28">
-        <f>IFERROR(I86/I16,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J87" s="28">
-        <f>IFERROR(J86/J16,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K87" s="28">
-        <f>IFERROR(K86/K16,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L87" s="28">
-        <f>IFERROR(L86/L16,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M87" s="28">
-        <f>IFERROR(M86/M16,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N87" s="28">
-        <f>IFERROR(N86/N16,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O87" s="28">
-        <f>IFERROR(O86/O16,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P87" s="28">
-        <f>IFERROR(P86/P16,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q87" s="28">
-        <f>IFERROR(Q86/Q16,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -4028,11 +4028,11 @@
       <c r="Q88" s="13"/>
     </row>
     <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="51" t="s">
+      <c r="A89" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="51"/>
-      <c r="C89" s="50" t="s">
+      <c r="B89" s="37"/>
+      <c r="C89" s="36" t="s">
         <v>94</v>
       </c>
       <c r="D89" s="18" t="s">
@@ -4053,9 +4053,9 @@
       <c r="Q89" s="19"/>
     </row>
     <row r="90" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="51"/>
-      <c r="B90" s="51"/>
-      <c r="C90" s="50"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="36"/>
       <c r="D90" s="18" t="s">
         <v>96</v>
       </c>
@@ -4074,9 +4074,9 @@
       <c r="Q90" s="19"/>
     </row>
     <row r="91" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="51"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="50"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="36"/>
       <c r="D91" s="18" t="s">
         <v>97</v>
       </c>
@@ -4095,9 +4095,9 @@
       <c r="Q91" s="19"/>
     </row>
     <row r="92" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="51"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="50" t="s">
+      <c r="A92" s="37"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="36" t="s">
         <v>98</v>
       </c>
       <c r="D92" s="18" t="s">
@@ -4118,9 +4118,9 @@
       <c r="Q92" s="19"/>
     </row>
     <row r="93" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="51"/>
-      <c r="B93" s="51"/>
-      <c r="C93" s="50"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="36"/>
       <c r="D93" s="18" t="s">
         <v>100</v>
       </c>
@@ -4139,9 +4139,9 @@
       <c r="Q93" s="19"/>
     </row>
     <row r="94" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="51"/>
-      <c r="B94" s="51"/>
-      <c r="C94" s="50"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="36"/>
       <c r="D94" s="18" t="s">
         <v>101</v>
       </c>
@@ -4160,8 +4160,8 @@
       <c r="Q94" s="19"/>
     </row>
     <row r="95" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="51"/>
-      <c r="B95" s="51"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="37"/>
       <c r="C95" s="22" t="s">
         <v>22</v>
       </c>
@@ -4183,14 +4183,14 @@
       <c r="Q95" s="19"/>
     </row>
     <row r="96" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="51"/>
-      <c r="B96" s="51"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="37"/>
       <c r="C96" s="23" t="s">
         <v>103</v>
       </c>
       <c r="D96" s="24"/>
       <c r="E96" s="27">
-        <f t="shared" ref="E96" si="13">SUM(E89:E95)</f>
+        <f t="shared" ref="E96" si="17">SUM(E89:E95)</f>
         <v>0</v>
       </c>
       <c r="F96" s="27">
@@ -4198,107 +4198,107 @@
         <v>0</v>
       </c>
       <c r="G96" s="27">
-        <f t="shared" ref="G96:I96" si="14">SUM(G89:G95)</f>
+        <f t="shared" ref="G96:I96" si="18">SUM(G89:G95)</f>
         <v>0</v>
       </c>
       <c r="H96" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I96" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J96" s="27">
-        <f t="shared" ref="J96:Q96" si="15">SUM(J89:J95)</f>
+        <f t="shared" ref="J96:Q96" si="19">SUM(J89:J95)</f>
         <v>0</v>
       </c>
       <c r="K96" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L96" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M96" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N96" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O96" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P96" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q96" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="51"/>
-      <c r="B97" s="51"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="37"/>
       <c r="C97" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D97" s="24"/>
       <c r="E97" s="28">
-        <f>IFERROR(E96/E16,0)</f>
+        <f t="shared" ref="E97:Q97" si="20">IFERROR(E96/E16,0)</f>
         <v>0</v>
       </c>
       <c r="F97" s="28">
-        <f>IFERROR(F96/F16,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G97" s="28">
-        <f>IFERROR(G96/G16,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H97" s="28">
-        <f>IFERROR(H96/H16,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I97" s="28">
-        <f>IFERROR(I96/I16,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J97" s="28">
-        <f>IFERROR(J96/J16,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K97" s="28">
-        <f>IFERROR(K96/K16,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L97" s="28">
-        <f>IFERROR(L96/L16,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M97" s="28">
-        <f>IFERROR(M96/M16,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N97" s="28">
-        <f>IFERROR(N96/N16,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O97" s="28">
-        <f>IFERROR(O96/O16,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P97" s="28">
-        <f>IFERROR(P96/P16,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q97" s="28">
-        <f>IFERROR(Q96/Q16,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -4322,388 +4322,388 @@
       <c r="Q98" s="13"/>
     </row>
     <row r="99" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="36" t="s">
+      <c r="A99" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="37"/>
-      <c r="C99" s="38"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="55"/>
       <c r="D99" s="8" t="s">
         <v>105</v>
       </c>
       <c r="E99" s="14">
-        <f>E16</f>
+        <f t="shared" ref="E99:Q99" si="21">E16</f>
         <v>2865</v>
       </c>
       <c r="F99" s="14">
-        <f>F16</f>
+        <f t="shared" si="21"/>
         <v>2865</v>
       </c>
       <c r="G99" s="14">
-        <f>G16</f>
+        <f t="shared" si="21"/>
         <v>2865</v>
       </c>
       <c r="H99" s="14">
-        <f>H16</f>
+        <f t="shared" si="21"/>
         <v>2865</v>
       </c>
       <c r="I99" s="14">
-        <f>I16</f>
+        <f t="shared" si="21"/>
         <v>2865</v>
       </c>
       <c r="J99" s="14">
-        <f>J16</f>
+        <f t="shared" si="21"/>
         <v>2865</v>
       </c>
       <c r="K99" s="14">
-        <f>K16</f>
-        <v>3065</v>
+        <f t="shared" si="21"/>
+        <v>2865</v>
       </c>
       <c r="L99" s="14">
-        <f>L16</f>
-        <v>3065</v>
+        <f t="shared" si="21"/>
+        <v>2865</v>
       </c>
       <c r="M99" s="14">
-        <f>M16</f>
-        <v>3065</v>
+        <f t="shared" si="21"/>
+        <v>2865</v>
       </c>
       <c r="N99" s="14">
-        <f>N16</f>
-        <v>3065</v>
+        <f t="shared" si="21"/>
+        <v>2865</v>
       </c>
       <c r="O99" s="14">
-        <f>O16</f>
-        <v>3065</v>
+        <f t="shared" si="21"/>
+        <v>2865</v>
       </c>
       <c r="P99" s="14">
-        <f>P16</f>
-        <v>3065</v>
+        <f t="shared" si="21"/>
+        <v>2865</v>
       </c>
       <c r="Q99" s="14">
-        <f>Q16</f>
-        <v>3065</v>
+        <f t="shared" si="21"/>
+        <v>2865</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="39"/>
-      <c r="B100" s="40"/>
-      <c r="C100" s="41"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="58"/>
       <c r="D100" s="8" t="s">
         <v>106</v>
       </c>
       <c r="E100" s="14">
-        <f>E28</f>
+        <f t="shared" ref="E100:Q100" si="22">E28</f>
         <v>0</v>
       </c>
       <c r="F100" s="14">
-        <f>F28</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G100" s="14">
-        <f>G28</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H100" s="14">
-        <f>H28</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I100" s="14">
-        <f>I28</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J100" s="14">
-        <f>J28</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K100" s="14">
-        <f>K28</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L100" s="14">
-        <f>L28</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M100" s="14">
-        <f>M28</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N100" s="14">
-        <f>N28</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O100" s="14">
-        <f>O28</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P100" s="14">
-        <f>P28</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q100" s="14">
-        <f>Q28</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="39"/>
-      <c r="B101" s="40"/>
-      <c r="C101" s="41"/>
+      <c r="A101" s="56"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="58"/>
       <c r="D101" s="8" t="s">
         <v>107</v>
       </c>
       <c r="E101" s="14">
-        <f t="shared" ref="E101" si="16">E53</f>
+        <f t="shared" ref="E101" si="23">E53</f>
         <v>1673.25</v>
       </c>
       <c r="F101" s="14">
-        <f t="shared" ref="F101:I101" si="17">F53</f>
+        <f t="shared" ref="F101:I101" si="24">F53</f>
         <v>1673.25</v>
       </c>
       <c r="G101" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1673.25</v>
       </c>
       <c r="H101" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1673.25</v>
       </c>
       <c r="I101" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1673.25</v>
       </c>
       <c r="J101" s="14">
-        <f t="shared" ref="J101:Q101" si="18">J53</f>
+        <f t="shared" ref="J101:Q101" si="25">J53</f>
         <v>1673.25</v>
       </c>
       <c r="K101" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1772.25</v>
       </c>
       <c r="L101" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1772.25</v>
       </c>
       <c r="M101" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1772.25</v>
       </c>
       <c r="N101" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1772.25</v>
       </c>
       <c r="O101" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1772.25</v>
       </c>
       <c r="P101" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1772.25</v>
       </c>
       <c r="Q101" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1772.25</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="39"/>
-      <c r="B102" s="40"/>
-      <c r="C102" s="41"/>
+      <c r="A102" s="56"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="58"/>
       <c r="D102" s="8" t="s">
         <v>108</v>
       </c>
       <c r="E102" s="14">
-        <f t="shared" ref="E102" si="19">E76</f>
+        <f t="shared" ref="E102" si="26">E76</f>
         <v>1034.4000000000001</v>
       </c>
       <c r="F102" s="14">
-        <f t="shared" ref="F102:I102" si="20">F76</f>
+        <f t="shared" ref="F102:I102" si="27">F76</f>
         <v>1034.4000000000001</v>
       </c>
       <c r="G102" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>1034.4000000000001</v>
       </c>
       <c r="H102" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>1034.4000000000001</v>
       </c>
       <c r="I102" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>1034.4000000000001</v>
       </c>
       <c r="J102" s="14">
-        <f t="shared" ref="J102:Q102" si="21">J76</f>
+        <f t="shared" ref="J102:Q102" si="28">J76</f>
         <v>1034.4000000000001</v>
       </c>
       <c r="K102" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>1034.4000000000001</v>
       </c>
       <c r="L102" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>1034.4000000000001</v>
       </c>
       <c r="M102" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>1034.4000000000001</v>
       </c>
       <c r="N102" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>1034.4000000000001</v>
       </c>
       <c r="O102" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>1034.4000000000001</v>
       </c>
       <c r="P102" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>1034.4000000000001</v>
       </c>
       <c r="Q102" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>1034.4000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="39"/>
-      <c r="B103" s="40"/>
-      <c r="C103" s="41"/>
+      <c r="A103" s="56"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="58"/>
       <c r="D103" s="8" t="s">
         <v>109</v>
       </c>
       <c r="E103" s="14">
-        <f t="shared" ref="E103" si="22">E86</f>
+        <f t="shared" ref="E103" si="29">E86</f>
         <v>0</v>
       </c>
       <c r="F103" s="14">
-        <f t="shared" ref="F103:I103" si="23">F86</f>
+        <f t="shared" ref="F103:I103" si="30">F86</f>
         <v>0</v>
       </c>
       <c r="G103" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H103" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I103" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J103" s="14">
-        <f t="shared" ref="J103:Q103" si="24">J86</f>
+        <f t="shared" ref="J103:Q103" si="31">J86</f>
         <v>0</v>
       </c>
       <c r="K103" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L103" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M103" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N103" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O103" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P103" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q103" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="39"/>
-      <c r="B104" s="40"/>
-      <c r="C104" s="41"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="58"/>
       <c r="D104" s="8" t="s">
         <v>110</v>
       </c>
       <c r="E104" s="14">
-        <f t="shared" ref="E104" si="25">E96</f>
+        <f t="shared" ref="E104" si="32">E96</f>
         <v>0</v>
       </c>
       <c r="F104" s="14">
-        <f t="shared" ref="F104:I104" si="26">F96</f>
+        <f t="shared" ref="F104:I104" si="33">F96</f>
         <v>0</v>
       </c>
       <c r="G104" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H104" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="I104" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="J104" s="14">
-        <f t="shared" ref="J104:Q104" si="27">J96</f>
+        <f t="shared" ref="J104:Q104" si="34">J96</f>
         <v>0</v>
       </c>
       <c r="K104" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L104" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M104" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N104" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O104" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P104" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q104" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="42"/>
-      <c r="B105" s="43"/>
-      <c r="C105" s="44"/>
+      <c r="A105" s="59"/>
+      <c r="B105" s="60"/>
+      <c r="C105" s="61"/>
       <c r="D105" s="9" t="s">
         <v>111</v>
       </c>
       <c r="E105" s="15">
-        <f t="shared" ref="E105" si="28">E99-(SUM(E100:E104))</f>
+        <f t="shared" ref="E105" si="35">E99-(SUM(E100:E104))</f>
         <v>157.34999999999991</v>
       </c>
       <c r="F105" s="15">
-        <f t="shared" ref="F105:H105" si="29">F99-(SUM(F100:F104))</f>
+        <f t="shared" ref="F105:H105" si="36">F99-(SUM(F100:F104))</f>
         <v>157.34999999999991</v>
       </c>
       <c r="G105" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>157.34999999999991</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>157.34999999999991</v>
       </c>
       <c r="I105" s="15">
@@ -4715,32 +4715,32 @@
         <v>157.34999999999991</v>
       </c>
       <c r="K105" s="15">
-        <f t="shared" ref="K105:Q105" si="30">K99-(SUM(K100:K104))</f>
-        <v>258.34999999999991</v>
+        <f t="shared" ref="K105:Q105" si="37">K99-(SUM(K100:K104))</f>
+        <v>58.349999999999909</v>
       </c>
       <c r="L105" s="15">
-        <f t="shared" si="30"/>
-        <v>258.34999999999991</v>
+        <f t="shared" si="37"/>
+        <v>58.349999999999909</v>
       </c>
       <c r="M105" s="15">
-        <f t="shared" si="30"/>
-        <v>258.34999999999991</v>
+        <f t="shared" si="37"/>
+        <v>58.349999999999909</v>
       </c>
       <c r="N105" s="15">
-        <f t="shared" si="30"/>
-        <v>258.34999999999991</v>
+        <f t="shared" si="37"/>
+        <v>58.349999999999909</v>
       </c>
       <c r="O105" s="15">
-        <f t="shared" si="30"/>
-        <v>258.34999999999991</v>
+        <f t="shared" si="37"/>
+        <v>58.349999999999909</v>
       </c>
       <c r="P105" s="15">
-        <f t="shared" si="30"/>
-        <v>258.34999999999991</v>
+        <f t="shared" si="37"/>
+        <v>58.349999999999909</v>
       </c>
       <c r="Q105" s="15">
-        <f t="shared" si="30"/>
-        <v>258.34999999999991</v>
+        <f t="shared" si="37"/>
+        <v>58.349999999999909</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="15" x14ac:dyDescent="0.3">
@@ -4749,56 +4749,56 @@
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="30">
-        <f>IFERROR(E105/E16,0)</f>
+        <f t="shared" ref="E106:Q106" si="38">IFERROR(E105/E16,0)</f>
         <v>5.4921465968586353E-2</v>
       </c>
       <c r="F106" s="30">
-        <f>IFERROR(F105/F16,0)</f>
+        <f t="shared" si="38"/>
         <v>5.4921465968586353E-2</v>
       </c>
       <c r="G106" s="30">
-        <f>IFERROR(G105/G16,0)</f>
+        <f t="shared" si="38"/>
         <v>5.4921465968586353E-2</v>
       </c>
       <c r="H106" s="30">
-        <f>IFERROR(H105/H16,0)</f>
+        <f t="shared" si="38"/>
         <v>5.4921465968586353E-2</v>
       </c>
       <c r="I106" s="30">
-        <f>IFERROR(I105/I16,0)</f>
+        <f t="shared" si="38"/>
         <v>5.4921465968586353E-2</v>
       </c>
       <c r="J106" s="30">
-        <f>IFERROR(J105/J16,0)</f>
+        <f t="shared" si="38"/>
         <v>5.4921465968586353E-2</v>
       </c>
       <c r="K106" s="30">
-        <f>IFERROR(K105/K16,0)</f>
-        <v>8.4290375203915135E-2</v>
+        <f t="shared" si="38"/>
+        <v>2.0366492146596828E-2</v>
       </c>
       <c r="L106" s="30">
-        <f>IFERROR(L105/L16,0)</f>
-        <v>8.4290375203915135E-2</v>
+        <f t="shared" si="38"/>
+        <v>2.0366492146596828E-2</v>
       </c>
       <c r="M106" s="30">
-        <f>IFERROR(M105/M16,0)</f>
-        <v>8.4290375203915135E-2</v>
+        <f t="shared" si="38"/>
+        <v>2.0366492146596828E-2</v>
       </c>
       <c r="N106" s="30">
-        <f>IFERROR(N105/N16,0)</f>
-        <v>8.4290375203915135E-2</v>
+        <f t="shared" si="38"/>
+        <v>2.0366492146596828E-2</v>
       </c>
       <c r="O106" s="30">
-        <f>IFERROR(O105/O16,0)</f>
-        <v>8.4290375203915135E-2</v>
+        <f t="shared" si="38"/>
+        <v>2.0366492146596828E-2</v>
       </c>
       <c r="P106" s="30">
-        <f>IFERROR(P105/P16,0)</f>
-        <v>8.4290375203915135E-2</v>
+        <f t="shared" si="38"/>
+        <v>2.0366492146596828E-2</v>
       </c>
       <c r="Q106" s="30">
-        <f>IFERROR(Q105/Q16,0)</f>
-        <v>8.4290375203915135E-2</v>
+        <f t="shared" si="38"/>
+        <v>2.0366492146596828E-2</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -7387,18 +7387,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="A33:B54"/>
-    <mergeCell ref="A17:C19"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="A79:B87"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:C16"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A20:C29"/>
-    <mergeCell ref="C39:C41"/>
     <mergeCell ref="I1:Q1"/>
     <mergeCell ref="A99:C105"/>
     <mergeCell ref="B32:C32"/>
@@ -7415,6 +7403,18 @@
     <mergeCell ref="C79:C81"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="A56:B77"/>
+    <mergeCell ref="A79:B87"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:C16"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A20:C29"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="A33:B54"/>
+    <mergeCell ref="A17:C19"/>
+    <mergeCell ref="A30:C31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E105:I105">
@@ -7438,14 +7438,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cdc5354f-30b2-42ef-84e1-bde4a0f3b1cb" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="099390d0-439d-425f-a084-1d5c24253b6f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7680,21 +7678,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cdc5354f-30b2-42ef-84e1-bde4a0f3b1cb" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="099390d0-439d-425f-a084-1d5c24253b6f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6C7D682-9EBB-47AA-A71F-6DE08E65BB11}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF3AC744-6777-40A7-82C0-7F6F95B8AE8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cdc5354f-30b2-42ef-84e1-bde4a0f3b1cb"/>
-    <ds:schemaRef ds:uri="099390d0-439d-425f-a084-1d5c24253b6f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7719,9 +7716,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF3AC744-6777-40A7-82C0-7F6F95B8AE8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6C7D682-9EBB-47AA-A71F-6DE08E65BB11}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cdc5354f-30b2-42ef-84e1-bde4a0f3b1cb"/>
+    <ds:schemaRef ds:uri="099390d0-439d-425f-a084-1d5c24253b6f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>